--- a/Doc/配置表/UIPanel.xlsx
+++ b/Doc/配置表/UIPanel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chinese1990SGame\Doc\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6F3E51-25F1-4A76-A3B9-7769505C8DE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48900E50-2F8C-47A9-90F9-8FF25284B8B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uiPanel" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1012,11 +1012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Doc/配置表/UIPanel.xlsx
+++ b/Doc/配置表/UIPanel.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chinese1990SGame\Doc\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48900E50-2F8C-47A9-90F9-8FF25284B8B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0354A13-B336-4C5C-850B-876B7D274DA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="uiPanel" sheetId="1" r:id="rId1"/>
+    <sheet name="UIPanel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>NameId</t>
   </si>
@@ -61,6 +61,14 @@
   </si>
   <si>
     <t>UI/CookFoodPanel/CookFoodPanel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameConsole</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GameConsole/GameConsole</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1013,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1081,6 +1089,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/配置表/UIPanel.xlsx
+++ b/Doc/配置表/UIPanel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chinese1990SGame\Doc\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0354A13-B336-4C5C-850B-876B7D274DA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDBC39B-36EF-4EEA-AC45-4A508EADD3D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>NameId</t>
   </si>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>UI/GameConsole/GameConsole</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerUIPanel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/PlayerUIPanel/PlayerUIPanel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1021,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1097,6 +1105,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
